--- a/design_sheet.xlsx
+++ b/design_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元素表" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/design_sheet.xlsx
+++ b/design_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="元素表" sheetId="1" r:id="rId1"/>
@@ -315,8 +315,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,7 +359,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +378,7 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -394,6 +397,7 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,7 +730,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -858,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -974,15 +978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
